--- a/data/folk_termer.xlsx
+++ b/data/folk_termer.xlsx
@@ -278,7 +278,7 @@
     <t>Folk25</t>
   </si>
   <si>
-    <t>Totalt antal anställda personer som är bibliotekarier 1 mars. Sammanräkning av män och kvinnor. Definition för bibliotekarier är personal med utbildning i biblioteks- och/eller informationsvetenskap och som har en tjänst som kräver denna utbildning. Utbildningen kan vara antingen formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper. </t>
+    <t>Totalt antal anställda personer som är bibliotekarier 1 mars. Sammanräkning av män och kvinnor. Definition för bibliotekarier är personal med utbildning i biblioteks- och/eller informationsvetenskap och som har en tjänst som kräver denna utbildning. Utbildningen kan vara antingen formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper.</t>
   </si>
   <si>
     <t>Totalt antal anställda bibliotekarier</t>
@@ -296,7 +296,7 @@
     <t>Folk27</t>
   </si>
   <si>
-    <t>Totalt antal anställda personer som är bibliotekarier och som är kvinnor 1 mars. Definition för bibliotekarier är personal med utbildning i biblioteks- och/eller informationsvetenskap och som har en tjänst som kräver denna utbildning. Utbildningen kan vara antingen formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper. </t>
+    <t>Totalt antal anställda personer som är bibliotekarier och som är kvinnor 1 mars. Definition för bibliotekarier är personal med utbildning i biblioteks- och/eller informationsvetenskap och som har en tjänst som kräver denna utbildning. Utbildningen kan vara antingen formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper.</t>
   </si>
   <si>
     <t>Antal kvinnliga bibliotekarier</t>
@@ -305,7 +305,7 @@
     <t>Folk28</t>
   </si>
   <si>
-    <t>Totalt antal anställda personer som är bibliotekarier och som är män 1 mars. Definition för bibliotekarier är personal med utbildning i biblioteks- och/eller informationsvetenskap och som har en tjänst som kräver denna utbildning. Utbildningen kan vara antingen formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper. </t>
+    <t>Totalt antal anställda personer som är bibliotekarier och som är män 1 mars. Definition för bibliotekarier är personal med utbildning i biblioteks- och/eller informationsvetenskap och som har en tjänst som kräver denna utbildning. Utbildningen kan vara antingen formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper.</t>
   </si>
   <si>
     <t>Antal manliga bibliotekarier</t>
@@ -359,7 +359,7 @@
     <t>Folk34</t>
   </si>
   <si>
-    <t>Totalt antal årsverken som utförs på folkbiblioteket som är bibliotekarier under kalenderåret. Definition för bibliotekarier är personal med utbildning i biblioteks- och/eller informationsvetenskap och som har en tjänst som kräver denna utbildning. Utbildningen kan vara antingen formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper. </t>
+    <t>Totalt antal årsverken som utförs på folkbiblioteket som är bibliotekarier under kalenderåret. Definition för bibliotekarier är personal med utbildning i biblioteks- och/eller informationsvetenskap och som har en tjänst som kräver denna utbildning. Utbildningen kan vara antingen formell utbildning, eller att personen har arbetat inom professionen och på det sättet förvärvat motsvarande kunskaper.</t>
   </si>
   <si>
     <t>Antal årsveken bibliotekarier</t>
@@ -470,7 +470,7 @@
     <t>Folk46</t>
   </si>
   <si>
-    <t>Lokalkostnad. Lokalkostnader inkluderar hyra, el, städning och motsvarande. Här redovisas lokalkostnader även om dessa inte bokförs under kultur-/biblioteksförvaltning utan under exempelvis kommunstyrelse eller byggnadsnämnd. Även kapitaltjänst ingår. </t>
+    <t>Lokalkostnad. Lokalkostnader inkluderar hyra, el, städning och motsvarande. Här redovisas lokalkostnader även om dessa inte bokförs under kultur-/biblioteksförvaltning utan under exempelvis kommunstyrelse eller byggnadsnämnd. Även kapitaltjänst ingår.</t>
   </si>
   <si>
     <t>Lokalkostnad</t>
@@ -479,7 +479,7 @@
     <t>Folk47</t>
   </si>
   <si>
-    <t>Investeringsutgifter är sådana kostnader som är avdragsgilla under längre period än ett år. Exempel på investeringsutgifter är fasta inventarier, ombyggnader, tillbyggnader och andra lokalförbättringar, inventarier som finns kvar över flera räkenskapsår, men inte utgifter för medier. </t>
+    <t>Investeringsutgifter är sådana kostnader som är avdragsgilla under längre period än ett år. Exempel på investeringsutgifter är fasta inventarier, ombyggnader, tillbyggnader och andra lokalförbättringar, inventarier som finns kvar över flera räkenskapsår, men inte utgifter för medier.</t>
   </si>
   <si>
     <t>Investeringsutgifter</t>
@@ -578,7 +578,7 @@
     <t>Folk57</t>
   </si>
   <si>
-    <t>Bestånd skönlitteratur för vuxna. Avser tryckta böcker. Barnlitteratur är verk som huvudsakligen är lämpliga för personer i åldern 0-14 år. Vuxenlitteratur är verk som huvudsakligen riktar sig till personer äldre än 14 år. Skönlitteratur är böcker som klassas inom SAB signum H eller Dewey 800-899. Facklitteratur är alla övriga signum. </t>
+    <t>Bestånd skönlitteratur för vuxna. Avser tryckta böcker. Barnlitteratur är verk som huvudsakligen är lämpliga för personer i åldern 0-14 år. Vuxenlitteratur är verk som huvudsakligen riktar sig till personer äldre än 14 år. Skönlitteratur är böcker som klassas inom SAB signum H eller Dewey 800-899. Facklitteratur är alla övriga signum.</t>
   </si>
   <si>
     <t>Bestånd skönlitteratur vuxna</t>
@@ -587,7 +587,7 @@
     <t>Folk58</t>
   </si>
   <si>
-    <t>Bestånd skönlitteratur för barn. Avser tryckta böcker. Barnlitteratur är verk som huvudsakligen är lämpliga för personer i åldern 0-14 år. Vuxenlitteratur är verk som huvudsakligen riktar sig till personer äldre än 14 år. Skönlitteratur är böcker som klassas inom SAB signum H eller Dewey 800-899. Facklitteratur är alla övriga signum. </t>
+    <t>Bestånd skönlitteratur för barn. Avser tryckta böcker. Barnlitteratur är verk som huvudsakligen är lämpliga för personer i åldern 0-14 år. Vuxenlitteratur är verk som huvudsakligen riktar sig till personer äldre än 14 år. Skönlitteratur är böcker som klassas inom SAB signum H eller Dewey 800-899. Facklitteratur är alla övriga signum.</t>
   </si>
   <si>
     <t>Bestånd skönlitteratur barn</t>
@@ -596,7 +596,7 @@
     <t>Folk59</t>
   </si>
   <si>
-    <t>Nyförvärv av skönlitteratur för vuxna. Avser tryckta böcker. Barnlitteratur är verk som huvudsakligen är lämpliga för personer i åldern 0-14 år. Vuxenlitteratur är verk som huvudsakligen riktar sig till personer äldre än 14 år. Skönlitteratur är böcker som klassas inom SAB signum H eller Dewey 800-899. Facklitteratur är alla övriga signum. </t>
+    <t>Nyförvärv av skönlitteratur för vuxna. Avser tryckta böcker. Barnlitteratur är verk som huvudsakligen är lämpliga för personer i åldern 0-14 år. Vuxenlitteratur är verk som huvudsakligen riktar sig till personer äldre än 14 år. Skönlitteratur är böcker som klassas inom SAB signum H eller Dewey 800-899. Facklitteratur är alla övriga signum.</t>
   </si>
   <si>
     <t>Nyförvärv skönlitteratur vuxna</t>
@@ -605,7 +605,7 @@
     <t>Folk60</t>
   </si>
   <si>
-    <t>Nyförvärv av skönlitteratur för barn. Avser tryckta böcker. Barnlitteratur är verk som huvudsakligen är lämpliga för personer i åldern 0-14 år. Vuxenlitteratur är verk som huvudsakligen riktar sig till personer äldre än 14 år. Skönlitteratur är böcker som klassas inom SAB signum H eller Dewey 800-899. Facklitteratur är alla övriga signum. </t>
+    <t>Nyförvärv av skönlitteratur för barn. Avser tryckta böcker. Barnlitteratur är verk som huvudsakligen är lämpliga för personer i åldern 0-14 år. Vuxenlitteratur är verk som huvudsakligen riktar sig till personer äldre än 14 år. Skönlitteratur är böcker som klassas inom SAB signum H eller Dewey 800-899. Facklitteratur är alla övriga signum.</t>
   </si>
   <si>
     <t>Nyförvärv skönlitteratur barn</t>
@@ -614,7 +614,7 @@
     <t>Folk61</t>
   </si>
   <si>
-    <t>Bestånd facklitteratur för vuxna. Avser tryckta böcker. Barnlitteratur är verk som huvudsakligen är lämpliga för personer i åldern 0-14 år. Vuxenlitteratur är verk som huvudsakligen riktar sig till personer äldre än 14 år. Skönlitteratur är böcker som klassas inom SAB signum H eller Dewey 800-899. Facklitteratur är alla övriga signum. </t>
+    <t>Bestånd facklitteratur för vuxna. Avser tryckta böcker. Barnlitteratur är verk som huvudsakligen är lämpliga för personer i åldern 0-14 år. Vuxenlitteratur är verk som huvudsakligen riktar sig till personer äldre än 14 år. Skönlitteratur är böcker som klassas inom SAB signum H eller Dewey 800-899. Facklitteratur är alla övriga signum.</t>
   </si>
   <si>
     <t>Bestånd facklitteratur vuxna</t>
@@ -623,7 +623,7 @@
     <t>Folk62</t>
   </si>
   <si>
-    <t>Bestånd facklitteratur för barn. Avser tryckta böcker. Barnlitteratur är verk som huvudsakligen är lämpliga för personer i åldern 0-14 år. Vuxenlitteratur är verk som huvudsakligen riktar sig till personer äldre än 14 år. Skönlitteratur är böcker som klassas inom SAB signum H eller Dewey 800-899. Facklitteratur är alla övriga signum. </t>
+    <t>Bestånd facklitteratur för barn. Avser tryckta böcker. Barnlitteratur är verk som huvudsakligen är lämpliga för personer i åldern 0-14 år. Vuxenlitteratur är verk som huvudsakligen riktar sig till personer äldre än 14 år. Skönlitteratur är böcker som klassas inom SAB signum H eller Dewey 800-899. Facklitteratur är alla övriga signum.</t>
   </si>
   <si>
     <t>Bestånd facklitteratur barn</t>
@@ -632,7 +632,7 @@
     <t>Folk63</t>
   </si>
   <si>
-    <t>Nyförvärv av facklitteratur för vuxna. Avser tryckta böcker. Barnlitteratur är verk som huvudsakligen är lämpliga för personer i åldern 0-14 år. Vuxenlitteratur är verk som huvudsakligen riktar sig till personer äldre än 14 år. Skönlitteratur är böcker som klassas inom SAB signum H eller Dewey 800-899. Facklitteratur är alla övriga signum. </t>
+    <t>Nyförvärv av facklitteratur för vuxna. Avser tryckta böcker. Barnlitteratur är verk som huvudsakligen är lämpliga för personer i åldern 0-14 år. Vuxenlitteratur är verk som huvudsakligen riktar sig till personer äldre än 14 år. Skönlitteratur är böcker som klassas inom SAB signum H eller Dewey 800-899. Facklitteratur är alla övriga signum.</t>
   </si>
   <si>
     <t>Nyförvärv facklitteratur vuxna</t>
@@ -641,7 +641,7 @@
     <t>Folk64</t>
   </si>
   <si>
-    <t>Nyfrövärv av facklitteratur för barn. Avser tryckta böcker. Barnlitteratur är verk som huvudsakligen är lämpliga för personer i åldern 0-14 år. Vuxenlitteratur är verk som huvudsakligen riktar sig till personer äldre än 14 år. Skönlitteratur är böcker som klassas inom SAB signum H eller Dewey 800-899. Facklitteratur är alla övriga signum. </t>
+    <t>Nyfrövärv av facklitteratur för barn. Avser tryckta böcker. Barnlitteratur är verk som huvudsakligen är lämpliga för personer i åldern 0-14 år. Vuxenlitteratur är verk som huvudsakligen riktar sig till personer äldre än 14 år. Skönlitteratur är böcker som klassas inom SAB signum H eller Dewey 800-899. Facklitteratur är alla övriga signum.</t>
   </si>
   <si>
     <t>Nyförvärv facklitteratur barn</t>
@@ -722,7 +722,7 @@
     <t>Folk73</t>
   </si>
   <si>
-    <t>Bestånd ljudbok 31 december. Ljudböcker kan finnas på ett flertal olika medieformer, det som är utmärkande är att texten läses upp av en röst. CD-böcker är detsamma som ljudböcker. I denna kategori ska inte talböcker i DAISY-format räknas in, de räknas separat. </t>
+    <t>Bestånd ljudbok 31 december. Ljudböcker kan finnas på ett flertal olika medieformer, det som är utmärkande är att texten läses upp av en röst. CD-böcker är detsamma som ljudböcker. I denna kategori ska inte talböcker i DAISY-format räknas in, de räknas separat.</t>
   </si>
   <si>
     <t>Bestånd ljudböcker</t>
@@ -731,7 +731,7 @@
     <t>Folk74</t>
   </si>
   <si>
-    <t>Nyförvärv ljudbok under kalenderåret. Ljudböcker kan finnas på ett flertal olika medieformer, det som är utmärkande är att texten läses upp av en röst. CD-böcker är detsamma som ljudböcker. I denna kategori ska inte talböcker i DAISY-format räknas in, de räknas separat. </t>
+    <t>Nyförvärv ljudbok under kalenderåret. Ljudböcker kan finnas på ett flertal olika medieformer, det som är utmärkande är att texten läses upp av en röst. CD-böcker är detsamma som ljudböcker. I denna kategori ska inte talböcker i DAISY-format räknas in, de räknas separat.</t>
   </si>
   <si>
     <t>Nyförvärv ljudböcker</t>
@@ -740,7 +740,7 @@
     <t>Folk75</t>
   </si>
   <si>
-    <t>Bestånd talbok 31 december. Talböcker DAISY, står för Digitalt anpassat informationssystem och är en öppen, internationellt etablerad standard för talböcker. En DAISY-spelare är en fristående CD-romspelare med funktioner för att läsa och navigera i DAISY-talboken. </t>
+    <t>Bestånd talbok 31 december. Talböcker DAISY, står för Digitalt anpassat informationssystem och är en öppen, internationellt etablerad standard för talböcker. En DAISY-spelare är en fristående CD-romspelare med funktioner för att läsa och navigera i DAISY-talboken.</t>
   </si>
   <si>
     <t>Bestånd talböcker</t>
@@ -749,7 +749,7 @@
     <t>Folk76</t>
   </si>
   <si>
-    <t>Nyförv talbok under kalenderåret. Talböcker DAISY, står för Digitalt anpassat informationssystem och är en öppen, internationellt etablerad standard för talböcker. En DAISY-spelare är en fristående CD-romspelare med funktioner för att läsa och navigera i DAISY-talboken. </t>
+    <t>Nyförv talbok under kalenderåret. Talböcker DAISY, står för Digitalt anpassat informationssystem och är en öppen, internationellt etablerad standard för talböcker. En DAISY-spelare är en fristående CD-romspelare med funktioner för att läsa och navigera i DAISY-talboken.</t>
   </si>
   <si>
     <t>Nyförvärv talböcker</t>
@@ -758,7 +758,7 @@
     <t>Folk77</t>
   </si>
   <si>
-    <t>Bestånd egna licenser e-musik 31 december. E-musik (egna licenser) redovisas separat och ska inte inkluderas i musikfonogram. Med egen licens avses att det är en nedladdad fil till ett fast medium t.ex. CD eller mp3 eller media i t.ex. en lokal ”jukebox” där inte biblioteket betalar för varje enskild nedladdning. I bestånd av e-musik räknas inte antalet titlar på t.ex. Naxos eller musikfiler som är allmänt tillgängliga via Internet. T.ex. tillgång till Naxos räknas som (1) under databaser </t>
+    <t>Bestånd egna licenser e-musik 31 december. E-musik (egna licenser) redovisas separat och ska inte inkluderas i musikfonogram. Med egen licens avses att det är en nedladdad fil till ett fast medium t.ex. CD eller mp3 eller media i t.ex. en lokal ”jukebox” där inte biblioteket betalar för varje enskild nedladdning. I bestånd av e-musik räknas inte antalet titlar på t.ex. Naxos eller musikfiler som är allmänt tillgängliga via Internet. T.ex. tillgång till Naxos räknas som (1) under databaser</t>
   </si>
   <si>
     <t>Bestånd egen licens e-musik</t>
@@ -812,7 +812,7 @@
     <t>Folk83</t>
   </si>
   <si>
-    <t>Bestånd CD-ROM 31 december. CD-ROM, skiva avsedd för lagring av datorprogram. Vanligt innehåll är PC- och Mac-dataspel och interaktiva språkkurser. Även skivor/kassetter med datorspel som kan användas i speciella spelkonsoler räknas in här. </t>
+    <t>Bestånd CD-ROM 31 december. CD-ROM, skiva avsedd för lagring av datorprogram. Vanligt innehåll är PC- och Mac-dataspel och interaktiva språkkurser. Även skivor/kassetter med datorspel som kan användas i speciella spelkonsoler räknas in här.</t>
   </si>
   <si>
     <t>Bestånd CD-ROM</t>
@@ -821,7 +821,7 @@
     <t>Folk84</t>
   </si>
   <si>
-    <t>Nyförvärv CD-ROM under kalanderåret. CD-ROM, skiva avsedd för lagring av datorprogram. Vanligt innehåll är PC- och Mac-dataspel och interaktiva språkkurser. Även skivor/kassetter med datorspel som kan användas i speciella spelkonsoler räknas in här. </t>
+    <t>Nyförvärv CD-ROM under kalanderåret. CD-ROM, skiva avsedd för lagring av datorprogram. Vanligt innehåll är PC- och Mac-dataspel och interaktiva språkkurser. Även skivor/kassetter med datorspel som kan användas i speciella spelkonsoler räknas in här.</t>
   </si>
   <si>
     <t>Nyförvärv CD-ROM</t>
@@ -875,7 +875,7 @@
     <t>Folk90</t>
   </si>
   <si>
-    <t>Antal svenska tidningsprenumerationer. Som tidning räknas varje periodisk publikation som utkommer minst 2 gånger per vecka, till exempel ”dagstidningar”. Som tidskrift räknas periodisk publikation som utkommer minst 4 gånger under året. Övriga periodiska publikationer, till exempel separata årsskrifter, räknas som böcker. Som utländska tidningar och tidskrifter räknas publikationer som har utgivningsort i utlandet. Även gratisprenumerationer räknas, prenumerationer som biblioteket erhåller utan att betala någon avgift. Observera att det är antal titlar på huvudbiblioteket som efterfrågas och när det gäller antalet prenumerationer avses både huvudbiblioteket och alla filialer. Licensierade e-tidningar och e-tidskrifter räknas fortfarande under tillgång till antal databaser </t>
+    <t>Antal svenska tidningsprenumerationer. Som tidning räknas varje periodisk publikation som utkommer minst 2 gånger per vecka, till exempel ”dagstidningar”. Som tidskrift räknas periodisk publikation som utkommer minst 4 gånger under året. Övriga periodiska publikationer, till exempel separata årsskrifter, räknas som böcker. Som utländska tidningar och tidskrifter räknas publikationer som har utgivningsort i utlandet. Även gratisprenumerationer räknas, prenumerationer som biblioteket erhåller utan att betala någon avgift. Observera att det är antal titlar på huvudbiblioteket som efterfrågas och när det gäller antalet prenumerationer avses både huvudbiblioteket och alla filialer. Licensierade e-tidningar och e-tidskrifter räknas fortfarande under tillgång till antal databaser</t>
   </si>
   <si>
     <t>Svenska tidningsprenumerationer</t>
@@ -884,7 +884,7 @@
     <t>Folk91</t>
   </si>
   <si>
-    <t>Antal utländska tidningsprenumerationer. Som tidning räknas varje periodisk publikation som utkommer minst 2 gånger per vecka, till exempel ”dagstidningar”. Som tidskrift räknas periodisk publikation som utkommer minst 4 gånger under året. Övriga periodiska publikationer, till exempel separata årsskrifter, räknas som böcker. Som utländska tidningar och tidskrifter räknas publikationer som har utgivningsort i utlandet. Även gratisprenumerationer räknas, prenumerationer som biblioteket erhåller utan att betala någon avgift. Observera att det är antal titlar på huvudbiblioteket som efterfrågas och när det gäller antalet prenumerationer avses både huvudbiblioteket och alla filialer. Licensierade e-tidningar och e-tidskrifter räknas fortfarande under tillgång till antal databaser </t>
+    <t>Antal utländska tidningsprenumerationer. Som tidning räknas varje periodisk publikation som utkommer minst 2 gånger per vecka, till exempel ”dagstidningar”. Som tidskrift räknas periodisk publikation som utkommer minst 4 gånger under året. Övriga periodiska publikationer, till exempel separata årsskrifter, räknas som böcker. Som utländska tidningar och tidskrifter räknas publikationer som har utgivningsort i utlandet. Även gratisprenumerationer räknas, prenumerationer som biblioteket erhåller utan att betala någon avgift. Observera att det är antal titlar på huvudbiblioteket som efterfrågas och när det gäller antalet prenumerationer avses både huvudbiblioteket och alla filialer. Licensierade e-tidningar och e-tidskrifter räknas fortfarande under tillgång till antal databaser</t>
   </si>
   <si>
     <t>Utländska tidningsprenumerationer</t>
@@ -893,7 +893,7 @@
     <t>Folk92</t>
   </si>
   <si>
-    <t>Antal titlar av svenska tidningar på huvudbiblioteket. Som tidning räknas varje periodisk publikation som utkommer minst 2 gånger per vecka, till exempel ”dagstidningar”. Som tidskrift räknas periodisk publikation som utkommer minst 4 gånger under året. Övriga periodiska publikationer, till exempel separata årsskrifter, räknas som böcker. Som utländska tidningar och tidskrifter räknas publikationer som har utgivningsort i utlandet. Även gratisprenumerationer räknas, prenumerationer som biblioteket erhåller utan att betala någon avgift. Observera att det är antal titlar på huvudbiblioteket som efterfrågas och när det gäller antalet prenumerationer avses både huvudbiblioteket och alla filialer. Licensierade e-tidningar och e-tidskrifter räknas fortfarande under tillgång till antal databaser </t>
+    <t>Antal titlar av svenska tidningar på huvudbiblioteket. Som tidning räknas varje periodisk publikation som utkommer minst 2 gånger per vecka, till exempel ”dagstidningar”. Som tidskrift räknas periodisk publikation som utkommer minst 4 gånger under året. Övriga periodiska publikationer, till exempel separata årsskrifter, räknas som böcker. Som utländska tidningar och tidskrifter räknas publikationer som har utgivningsort i utlandet. Även gratisprenumerationer räknas, prenumerationer som biblioteket erhåller utan att betala någon avgift. Observera att det är antal titlar på huvudbiblioteket som efterfrågas och när det gäller antalet prenumerationer avses både huvudbiblioteket och alla filialer. Licensierade e-tidningar och e-tidskrifter räknas fortfarande under tillgång till antal databaser</t>
   </si>
   <si>
     <t>Titlar svenska tidningar</t>
@@ -902,7 +902,7 @@
     <t>Folk93</t>
   </si>
   <si>
-    <t>Antal utländska tidningstitlar på huvudbiblioteket. Som tidning räknas varje periodisk publikation som utkommer minst 2 gånger per vecka, till exempel ”dagstidningar”. Som tidskrift räknas periodisk publikation som utkommer minst 4 gånger under året. Övriga periodiska publikationer, till exempel separata årsskrifter, räknas som böcker. Som utländska tidningar och tidskrifter räknas publikationer som har utgivningsort i utlandet. Även gratisprenumerationer räknas, prenumerationer som biblioteket erhåller utan att betala någon avgift. Observera att det är antal titlar på huvudbiblioteket som efterfrågas och när det gäller antalet prenumerationer avses både huvudbiblioteket och alla filialer. Licensierade e-tidningar och e-tidskrifter räknas fortfarande under tillgång till antal databaser </t>
+    <t>Antal utländska tidningstitlar på huvudbiblioteket. Som tidning räknas varje periodisk publikation som utkommer minst 2 gånger per vecka, till exempel ”dagstidningar”. Som tidskrift räknas periodisk publikation som utkommer minst 4 gånger under året. Övriga periodiska publikationer, till exempel separata årsskrifter, räknas som böcker. Som utländska tidningar och tidskrifter räknas publikationer som har utgivningsort i utlandet. Även gratisprenumerationer räknas, prenumerationer som biblioteket erhåller utan att betala någon avgift. Observera att det är antal titlar på huvudbiblioteket som efterfrågas och när det gäller antalet prenumerationer avses både huvudbiblioteket och alla filialer. Licensierade e-tidningar och e-tidskrifter räknas fortfarande under tillgång till antal databaser</t>
   </si>
   <si>
     <t>Titlar utländska tidningar</t>
@@ -911,7 +911,7 @@
     <t>Folk94</t>
   </si>
   <si>
-    <t>Antal svenska tidskriftsprenumrationer. Som tidning räknas varje periodisk publikation som utkommer minst 2 gånger per vecka, till exempel ”dagstidningar”. Som tidskrift räknas periodisk publikation som utkommer minst 4 gånger under året. Övriga periodiska publikationer, till exempel separata årsskrifter, räknas som böcker. Som utländska tidningar och tidskrifter räknas publikationer som har utgivningsort i utlandet. Även gratisprenumerationer räknas, prenumerationer som biblioteket erhåller utan att betala någon avgift. Observera att det är antal titlar på huvudbiblioteket som efterfrågas och när det gäller antalet prenumerationer avses både huvudbiblioteket och alla filialer. Licensierade e-tidningar och e-tidskrifter räknas fortfarande under tillgång till antal databaser </t>
+    <t>Antal svenska tidskriftsprenumrationer. Som tidning räknas varje periodisk publikation som utkommer minst 2 gånger per vecka, till exempel ”dagstidningar”. Som tidskrift räknas periodisk publikation som utkommer minst 4 gånger under året. Övriga periodiska publikationer, till exempel separata årsskrifter, räknas som böcker. Som utländska tidningar och tidskrifter räknas publikationer som har utgivningsort i utlandet. Även gratisprenumerationer räknas, prenumerationer som biblioteket erhåller utan att betala någon avgift. Observera att det är antal titlar på huvudbiblioteket som efterfrågas och när det gäller antalet prenumerationer avses både huvudbiblioteket och alla filialer. Licensierade e-tidningar och e-tidskrifter räknas fortfarande under tillgång till antal databaser</t>
   </si>
   <si>
     <t>Svenska tidskriftsprenumerationer</t>
@@ -920,7 +920,7 @@
     <t>Folk95</t>
   </si>
   <si>
-    <t>Antal utländska tidskriftsprenumerationer. Som tidning räknas varje periodisk publikation som utkommer minst 2 gånger per vecka, till exempel ”dagstidningar”. Som tidskrift räknas periodisk publikation som utkommer minst 4 gånger under året. Övriga periodiska publikationer, till exempel separata årsskrifter, räknas som böcker. Som utländska tidningar och tidskrifter räknas publikationer som har utgivningsort i utlandet. Även gratisprenumerationer räknas, prenumerationer som biblioteket erhåller utan att betala någon avgift. Observera att det är antal titlar på huvudbiblioteket som efterfrågas och när det gäller antalet prenumerationer avses både huvudbiblioteket och alla filialer. Licensierade e-tidningar och e-tidskrifter räknas fortfarande under tillgång till antal databaser </t>
+    <t>Antal utländska tidskriftsprenumerationer. Som tidning räknas varje periodisk publikation som utkommer minst 2 gånger per vecka, till exempel ”dagstidningar”. Som tidskrift räknas periodisk publikation som utkommer minst 4 gånger under året. Övriga periodiska publikationer, till exempel separata årsskrifter, räknas som böcker. Som utländska tidningar och tidskrifter räknas publikationer som har utgivningsort i utlandet. Även gratisprenumerationer räknas, prenumerationer som biblioteket erhåller utan att betala någon avgift. Observera att det är antal titlar på huvudbiblioteket som efterfrågas och när det gäller antalet prenumerationer avses både huvudbiblioteket och alla filialer. Licensierade e-tidningar och e-tidskrifter räknas fortfarande under tillgång till antal databaser</t>
   </si>
   <si>
     <t>Urländska tidskriftsprenumerationer</t>
@@ -929,7 +929,7 @@
     <t>Folk96</t>
   </si>
   <si>
-    <t>Antal svenska tidskriftstitlar på huvudbiblioteket. Som tidning räknas varje periodisk publikation som utkommer minst 2 gånger per vecka, till exempel ”dagstidningar”. Som tidskrift räknas periodisk publikation som utkommer minst 4 gånger under året. Övriga periodiska publikationer, till exempel separata årsskrifter, räknas som böcker. Som utländska tidningar och tidskrifter räknas publikationer som har utgivningsort i utlandet. Även gratisprenumerationer räknas, prenumerationer som biblioteket erhåller utan att betala någon avgift. Observera att det är antal titlar på huvudbiblioteket som efterfrågas och när det gäller antalet prenumerationer avses både huvudbiblioteket och alla filialer. Licensierade e-tidningar och e-tidskrifter räknas fortfarande under tillgång till antal databaser </t>
+    <t>Antal svenska tidskriftstitlar på huvudbiblioteket. Som tidning räknas varje periodisk publikation som utkommer minst 2 gånger per vecka, till exempel ”dagstidningar”. Som tidskrift räknas periodisk publikation som utkommer minst 4 gånger under året. Övriga periodiska publikationer, till exempel separata årsskrifter, räknas som böcker. Som utländska tidningar och tidskrifter räknas publikationer som har utgivningsort i utlandet. Även gratisprenumerationer räknas, prenumerationer som biblioteket erhåller utan att betala någon avgift. Observera att det är antal titlar på huvudbiblioteket som efterfrågas och när det gäller antalet prenumerationer avses både huvudbiblioteket och alla filialer. Licensierade e-tidningar och e-tidskrifter räknas fortfarande under tillgång till antal databaser</t>
   </si>
   <si>
     <t>Svenska tidskriftstitlar</t>
@@ -938,7 +938,7 @@
     <t>Folk97</t>
   </si>
   <si>
-    <t>Antal utländska tidskrifts titlar. Som tidning räknas varje periodisk publikation som utkommer minst 2 gånger per vecka, till exempel ”dagstidningar”. Som tidskrift räknas periodisk publikation som utkommer minst 4 gånger under året. Övriga periodiska publikationer, till exempel separata årsskrifter, räknas som böcker. Som utländska tidningar och tidskrifter räknas publikationer som har utgivningsort i utlandet. Även gratisprenumerationer räknas, prenumerationer som biblioteket erhåller utan att betala någon avgift. Observera att det är antal titlar på huvudbiblioteket som efterfrågas och när det gäller antalet prenumerationer avses både huvudbiblioteket och alla filialer. Licensierade e-tidningar och e-tidskrifter räknas fortfarande under tillgång till antal databaser </t>
+    <t>Antal utländska tidskrifts titlar. Som tidning räknas varje periodisk publikation som utkommer minst 2 gånger per vecka, till exempel ”dagstidningar”. Som tidskrift räknas periodisk publikation som utkommer minst 4 gånger under året. Övriga periodiska publikationer, till exempel separata årsskrifter, räknas som böcker. Som utländska tidningar och tidskrifter räknas publikationer som har utgivningsort i utlandet. Även gratisprenumerationer räknas, prenumerationer som biblioteket erhåller utan att betala någon avgift. Observera att det är antal titlar på huvudbiblioteket som efterfrågas och när det gäller antalet prenumerationer avses både huvudbiblioteket och alla filialer. Licensierade e-tidningar och e-tidskrifter räknas fortfarande under tillgång till antal databaser</t>
   </si>
   <si>
     <t>Utländska tidskriftstitlar</t>
@@ -1061,7 +1061,7 @@
     <t>Folk110</t>
   </si>
   <si>
-    <t>Andel skönlitteratur av total utlåning tryckta medier. Både </t>
+    <t>Andel skönlitteratur av total utlåning tryckta medier. Både</t>
   </si>
   <si>
     <t>Andel skönlitteratur av utlåningen</t>
@@ -1280,7 +1280,7 @@
     <t>Folk136</t>
   </si>
   <si>
-    <t>Total öppettid huvudbibliotek, normal vecka under vintertid </t>
+    <t>Total öppettid huvudbibliotek, normal vecka under vintertid</t>
   </si>
   <si>
     <t>Öppethållande</t>
@@ -1292,7 +1292,7 @@
     <t>Folk137</t>
   </si>
   <si>
-    <t>Total öppettid filialbibliotek, normal vecka under vintertid </t>
+    <t>Total öppettid filialbibliotek, normal vecka under vintertid</t>
   </si>
   <si>
     <t>Total öppettid filialbibliotek</t>
@@ -1301,7 +1301,7 @@
     <t>Folk138</t>
   </si>
   <si>
-    <t>Total öppettid bokbuss, normal vecka under vintertid </t>
+    <t>Total öppettid bokbuss, normal vecka under vintertid</t>
   </si>
   <si>
     <t>Total öppettid bokbuss</t>
@@ -1310,7 +1310,7 @@
     <t>Folk139</t>
   </si>
   <si>
-    <t>Öppettid efter 18 på huvudbibliotek, normal vecka under vintertid </t>
+    <t>Öppettid efter 18 på huvudbibliotek, normal vecka under vintertid</t>
   </si>
   <si>
     <t>Öppettid efter 18 på huvudbibliotek</t>
@@ -1319,7 +1319,7 @@
     <t>Folk140</t>
   </si>
   <si>
-    <t>Öppettid efter 18 på filialbibliotek, normal vecka under vintertid </t>
+    <t>Öppettid efter 18 på filialbibliotek, normal vecka under vintertid</t>
   </si>
   <si>
     <t>Öppettid efter 18 på filialbibliotek</t>
@@ -1328,7 +1328,7 @@
     <t>Folk141</t>
   </si>
   <si>
-    <t>Öppettid efter 18 på bokbuss, normal vecka under vintertid </t>
+    <t>Öppettid efter 18 på bokbuss, normal vecka under vintertid</t>
   </si>
   <si>
     <t>Öppettid efter 18 på bokbuss</t>
@@ -1337,7 +1337,7 @@
     <t>Folk142</t>
   </si>
   <si>
-    <t>Öppettid söndag huvudbibliotek, normal vecka under vintertid </t>
+    <t>Öppettid söndag huvudbibliotek, normal vecka under vintertid</t>
   </si>
   <si>
     <t>Öppettid söndag huvudbibliotek</t>
@@ -1346,7 +1346,7 @@
     <t>Folk143</t>
   </si>
   <si>
-    <t>Öppettid söndag filialbibliotek, normal vecka under vintertid </t>
+    <t>Öppettid söndag filialbibliotek, normal vecka under vintertid</t>
   </si>
   <si>
     <t>Öppettid söndag filialbibliotek</t>
@@ -1355,7 +1355,7 @@
     <t>Folk144</t>
   </si>
   <si>
-    <t>Öppettid söndag bokbuss, normal vecka under vintertid </t>
+    <t>Öppettid söndag bokbuss, normal vecka under vintertid</t>
   </si>
   <si>
     <t>Öppettid söndag bokbuss</t>
@@ -1499,7 +1499,7 @@
     <t>Folk160</t>
   </si>
   <si>
-    <t>Totalt antal publika aktivitetstillfällen samtliga åldrar. Sammanräkning av det totala antalet publika aktivitetstillfällen. Som ett publik aktivitetstillfälle räknas en pubik aktivitet som anordnas av bibliotekets personal, oavsett om den utförs i bibliotekets lokaler eller inte. </t>
+    <t>Totalt antal publika aktivitetstillfällen samtliga åldrar. Sammanräkning av det totala antalet publika aktivitetstillfällen. Som ett publik aktivitetstillfälle räknas en pubik aktivitet som anordnas av bibliotekets personal, oavsett om den utförs i bibliotekets lokaler eller inte.</t>
   </si>
   <si>
     <t>Aktiviteter</t>
@@ -1520,8 +1520,7 @@
     <t>Folk162</t>
   </si>
   <si>
-    <t>Procentuell andel av alla publika aktiviteter som är riktade primärt till för barn/unga. Ibland kan denna avgränsning vara svår att göra eftersom både vuxna, ungdomar och barn deltar i vissa aktiviteter. Definitionen på en publik aktivitet som riktar sig till barn och unga är en aktivitet som uppenbart inte riktar sig till vuxna i första hand. Programaktiviteter just för föräldrar med mycket små barn bör dock kunna räknas som en aktivitet som är primärt för barn och unga eftersom aktiviteten avser att gagna barnet i förlängingen. Programaktiviteter som anordnas på biblioteket, men av personal från andra organisationer t.ex. studieförbund eller föreningar räknas inte. Som slutet sällskap räknas sådana aktiviteter där det i förväg är känt vilka personer som ska komma. Aktiviteter som utförs av bibliotekets personal men inte i bibliotekets lokaler räknas också in.
-</t>
+    <t>Procentuell andel av alla publika aktiviteter som är riktade primärt till för barn/unga. Ibland kan denna avgränsning vara svår att göra eftersom både vuxna, ungdomar och barn deltar i vissa aktiviteter. Definitionen på en publik aktivitet som riktar sig till barn och unga är en aktivitet som uppenbart inte riktar sig till vuxna i första hand. Programaktiviteter just för föräldrar med mycket små barn bör dock kunna räknas som en aktivitet som är primärt för barn och unga eftersom aktiviteten avser att gagna barnet i förlängingen. Programaktiviteter som anordnas på biblioteket, men av personal från andra organisationer t.ex. studieförbund eller föreningar räknas inte. Som slutet sällskap räknas sådana aktiviteter där det i förväg är känt vilka personer som ska komma. Aktiviteter som utförs av bibliotekets personal men inte i bibliotekets lokaler räknas också in.</t>
   </si>
   <si>
     <t>Andel barnaktiviteter</t>
@@ -1899,11 +1898,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1920,6 +1920,19 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1930,7 +1943,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6699"/>
+        <fgColor rgb="FFFF66CC"/>
         <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
@@ -1969,16 +1982,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2014,7 +2031,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF6699"/>
+      <rgbColor rgb="FFFF66CC"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -2062,4051 +2079,4051 @@
   <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.234693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="35.6479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="77.234693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="1" width="35.6479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="10.8061224489796"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="E15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="E23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="E24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="E26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="E28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="E29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="E30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="E31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="F34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="F35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="F38" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="E39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="E40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="E41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="E42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="F43" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="E44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="E45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E46" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="E46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="E47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E48" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="E48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="E49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E50" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="E50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="F51" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E52" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="E52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F53" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="F53" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F54" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="F54" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F55" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="F55" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="E56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F57" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="F57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E58" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="E58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E59" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="E59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="E60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E61" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="E61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E62" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="E62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E63" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="E63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E64" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="E64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E65" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="E65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E66" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="E66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E67" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="E67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E68" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="E68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E69" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="E69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E70" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="E70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E71" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="E71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E72" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="E72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E73" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="E73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E74" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="E74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E75" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="E75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E76" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="E76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E77" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="E77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E78" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="E78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E79" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="E79" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E80" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="E80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E81" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="E81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E82" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="E82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E83" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="E83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E84" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="E84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="E85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E86" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="E86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E87" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="E87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E88" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="E88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E89" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="E89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E90" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F90" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="F90" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E91" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="E91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E92" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="E92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E93" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F93" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="E93" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E94" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F94" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="E94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E95" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="E95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E96" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F96" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="E96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E97" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F97" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="E97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E98" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F98" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="E98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E99" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F99" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="E99" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E100" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F100" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="E100" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E101" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="E101" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="E102" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F102" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="F102" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E103" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F103" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="E103" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E104" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F104" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="E104" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="E105" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F105" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="F105" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E106" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F106" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="E106" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E107" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F107" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="E107" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="E108" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F108" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="F108" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E109" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F109" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="E109" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E110" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F110" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="E110" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E111" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F111" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="E111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E112" s="0" t="s">
+      <c r="E112" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F112" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="F112" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="E113" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F113" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="F113" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E114" s="0" t="s">
+      <c r="E114" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F114" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="F114" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E115" s="0" t="s">
+      <c r="E115" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F115" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="F115" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E116" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F116" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="E116" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E117" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F117" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="E117" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E118" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F118" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="E118" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="E119" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F119" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="E119" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E120" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F120" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="E120" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E121" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F121" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="E121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E122" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F122" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="E122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E123" s="0" t="s">
+      <c r="E123" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F123" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="F123" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E124" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F124" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="E124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D125" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E125" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F125" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="E125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E126" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F126" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="E126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E127" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F127" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="E127" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="D128" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E128" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F128" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="E128" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D129" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E129" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F129" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="E129" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D130" s="0" t="s">
+      <c r="D130" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E130" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F130" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="E130" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="D131" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E131" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F131" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="E131" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D132" s="0" t="s">
+      <c r="D132" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E132" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F132" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="E132" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D133" s="0" t="s">
+      <c r="D133" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E133" s="0" t="s">
+      <c r="E133" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F133" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="F133" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D134" s="0" t="s">
+      <c r="D134" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="E134" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F134" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="E134" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D135" s="0" t="s">
+      <c r="D135" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E135" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F135" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="E135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D136" s="0" t="s">
+      <c r="D136" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E136" s="0" t="s">
+      <c r="E136" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F136" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="F136" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D137" s="0" t="s">
+      <c r="D137" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E137" s="0" t="s">
+      <c r="E137" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F137" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="F137" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D138" s="0" t="s">
+      <c r="D138" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E138" s="0" t="s">
+      <c r="E138" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F138" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="F138" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D139" s="0" t="s">
+      <c r="D139" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E139" s="0" t="s">
+      <c r="E139" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F139" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="F139" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="D140" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E140" s="0" t="s">
+      <c r="E140" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F140" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="F140" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="D141" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E141" s="0" t="s">
+      <c r="E141" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F141" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="F141" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D142" s="0" t="s">
+      <c r="D142" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="E142" s="0" t="s">
+      <c r="E142" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F142" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="F142" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D143" s="0" t="s">
+      <c r="D143" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="E143" s="0" t="s">
+      <c r="E143" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F143" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="F143" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D144" s="0" t="s">
+      <c r="D144" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="E144" s="0" t="s">
+      <c r="E144" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F144" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="F144" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D145" s="0" t="s">
+      <c r="D145" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E145" s="0" t="s">
+      <c r="E145" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F145" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="F145" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B146" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D146" s="0" t="s">
+      <c r="D146" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E146" s="0" t="s">
+      <c r="E146" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F146" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="F146" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B147" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D147" s="0" t="s">
+      <c r="D147" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E147" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F147" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="E147" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="B148" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D148" s="0" t="s">
+      <c r="D148" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="E148" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F148" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="E148" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D149" s="0" t="s">
+      <c r="D149" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E149" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F149" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="E149" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D150" s="0" t="s">
+      <c r="D150" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="E150" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F150" s="0" t="s">
+      <c r="E150" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+    <row r="151" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D151" s="0" t="s">
+      <c r="D151" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E151" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F151" s="0" t="s">
+      <c r="E151" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+    <row r="152" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B152" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D152" s="0" t="s">
+      <c r="D152" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="E152" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F152" s="0" t="s">
+      <c r="E152" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+    <row r="153" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B153" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D153" s="0" t="s">
+      <c r="D153" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="E153" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F153" s="0" t="s">
+      <c r="E153" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+    <row r="154" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D154" s="0" t="s">
+      <c r="D154" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E154" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F154" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="E154" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B155" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D155" s="0" t="s">
+      <c r="D155" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E155" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F155" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="E155" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D156" s="0" t="s">
+      <c r="D156" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E156" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F156" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="E156" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D157" s="0" t="s">
+      <c r="D157" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="E157" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F157" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="E157" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D158" s="0" t="s">
+      <c r="D158" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="E158" s="0" t="s">
+      <c r="E158" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F158" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="F158" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D159" s="0" t="s">
+      <c r="D159" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="E159" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F159" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="E159" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B160" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D160" s="0" t="s">
+      <c r="D160" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="E160" s="0" t="s">
+      <c r="E160" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F160" s="0" t="s">
+      <c r="F160" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+    <row r="161" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B161" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D161" s="0" t="s">
+      <c r="D161" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E161" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F161" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="E161" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B162" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D162" s="0" t="s">
+      <c r="D162" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E162" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F162" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+      <c r="E162" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D163" s="0" t="s">
+      <c r="D163" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E163" s="0" t="s">
+      <c r="E163" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F163" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+      <c r="F163" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="B164" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="C164" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D164" s="0" t="s">
+      <c r="D164" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="E164" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F164" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+      <c r="E164" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="B165" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D165" s="0" t="s">
+      <c r="D165" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="E165" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F165" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+      <c r="E165" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B166" s="0" t="s">
+      <c r="B166" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D166" s="0" t="s">
+      <c r="D166" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="E166" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F166" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="E166" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B167" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D167" s="0" t="s">
+      <c r="D167" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E167" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F167" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="E167" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D168" s="0" t="s">
+      <c r="D168" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E168" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F168" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="E168" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D169" s="0" t="s">
+      <c r="D169" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="E169" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F169" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+      <c r="E169" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D170" s="0" t="s">
+      <c r="D170" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="E170" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F170" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="E170" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C171" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D171" s="0" t="s">
+      <c r="D171" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="E171" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F171" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="E171" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C172" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D172" s="0" t="s">
+      <c r="D172" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="E172" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F172" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+      <c r="E172" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D173" s="0" t="s">
+      <c r="D173" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="E173" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F173" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="E173" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C174" s="0" t="s">
+      <c r="C174" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D174" s="0" t="s">
+      <c r="D174" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="E174" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F174" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+      <c r="E174" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C175" s="0" t="s">
+      <c r="C175" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D175" s="0" t="s">
+      <c r="D175" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E175" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F175" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="E175" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="B176" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C176" s="0" t="s">
+      <c r="C176" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D176" s="0" t="s">
+      <c r="D176" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="E176" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F176" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="E176" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="B177" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C177" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D177" s="0" t="s">
+      <c r="D177" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="E177" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F177" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="E177" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="B178" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C178" s="0" t="s">
+      <c r="C178" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D178" s="0" t="s">
+      <c r="D178" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="E178" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F178" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+      <c r="E178" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="B179" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C179" s="0" t="s">
+      <c r="C179" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D179" s="0" t="s">
+      <c r="D179" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="E179" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F179" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+      <c r="E179" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="B180" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C180" s="0" t="s">
+      <c r="C180" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D180" s="0" t="s">
+      <c r="D180" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="E180" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F180" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+      <c r="E180" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B181" s="0" t="s">
+      <c r="B181" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C181" s="0" t="s">
+      <c r="C181" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D181" s="0" t="s">
+      <c r="D181" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="E181" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F181" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="E181" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="B182" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C182" s="0" t="s">
+      <c r="C182" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D182" s="0" t="s">
+      <c r="D182" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E182" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F182" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+      <c r="E182" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B183" s="0" t="s">
+      <c r="B183" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C183" s="0" t="s">
+      <c r="C183" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D183" s="0" t="s">
+      <c r="D183" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="E183" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F183" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="E183" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B184" s="0" t="s">
+      <c r="B184" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C184" s="0" t="s">
+      <c r="C184" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D184" s="0" t="s">
+      <c r="D184" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="E184" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F184" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+      <c r="E184" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B185" s="0" t="s">
+      <c r="B185" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C185" s="0" t="s">
+      <c r="C185" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D185" s="0" t="s">
+      <c r="D185" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E185" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F185" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+      <c r="E185" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="B186" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C186" s="0" t="s">
+      <c r="C186" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D186" s="0" t="s">
+      <c r="D186" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="E186" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F186" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+      <c r="E186" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B187" s="0" t="s">
+      <c r="B187" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C187" s="0" t="s">
+      <c r="C187" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D187" s="0" t="s">
+      <c r="D187" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="E187" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F187" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
+      <c r="E187" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="B188" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C188" s="0" t="s">
+      <c r="C188" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D188" s="0" t="s">
+      <c r="D188" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="E188" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F188" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+      <c r="E188" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="B189" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C189" s="0" t="s">
+      <c r="C189" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D189" s="0" t="s">
+      <c r="D189" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="E189" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F189" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+      <c r="E189" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="B190" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C190" s="0" t="s">
+      <c r="C190" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D190" s="0" t="s">
+      <c r="D190" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="E190" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F190" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+      <c r="E190" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B191" s="0" t="s">
+      <c r="B191" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C191" s="0" t="s">
+      <c r="C191" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D191" s="0" t="s">
+      <c r="D191" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="E191" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F191" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+      <c r="E191" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B192" s="0" t="s">
+      <c r="B192" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C192" s="0" t="s">
+      <c r="C192" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D192" s="0" t="s">
+      <c r="D192" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="E192" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F192" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+      <c r="E192" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="B193" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C193" s="0" t="s">
+      <c r="C193" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D193" s="0" t="s">
+      <c r="D193" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="E193" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F193" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
+      <c r="E193" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="B194" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C194" s="0" t="s">
+      <c r="C194" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D194" s="0" t="s">
+      <c r="D194" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="E194" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F194" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+      <c r="E194" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B195" s="0" t="s">
+      <c r="B195" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C195" s="0" t="s">
+      <c r="C195" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D195" s="0" t="s">
+      <c r="D195" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="E195" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F195" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+      <c r="E195" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="B196" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C196" s="0" t="s">
+      <c r="C196" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D196" s="0" t="s">
+      <c r="D196" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="E196" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F196" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+      <c r="E196" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="B197" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C197" s="0" t="s">
+      <c r="C197" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D197" s="0" t="s">
+      <c r="D197" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="E197" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F197" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+      <c r="E197" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="B198" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C198" s="0" t="s">
+      <c r="C198" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D198" s="0" t="s">
+      <c r="D198" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="E198" s="0" t="s">
+      <c r="E198" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F198" s="0" t="s">
+      <c r="F198" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+    <row r="199" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="B199" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C199" s="0" t="s">
+      <c r="C199" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="D199" s="0" t="s">
+      <c r="D199" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="E199" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F199" s="0" t="s">
+      <c r="E199" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F199" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+    <row r="200" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B200" s="0" t="s">
+      <c r="B200" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C200" s="0" t="s">
+      <c r="C200" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="D200" s="0" t="s">
+      <c r="D200" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="E200" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F200" s="0" t="s">
+      <c r="E200" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F200" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+    <row r="201" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="B201" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C201" s="0" t="s">
+      <c r="C201" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="D201" s="0" t="s">
+      <c r="D201" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="E201" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F201" s="0" t="s">
+      <c r="E201" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F201" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+    <row r="202" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="B202" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C202" s="0" t="s">
+      <c r="C202" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="D202" s="0" t="s">
+      <c r="D202" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="E202" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F202" s="0" t="s">
+      <c r="E202" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F202" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/data/folk_termer.xlsx
+++ b/data/folk_termer.xlsx
@@ -8,14 +8,14 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="141" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Term" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Nyckel" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="624">
   <si>
     <t>Ordningsnummer</t>
   </si>
@@ -128,6 +128,9 @@
     <t>Vi har inget huvudbibliotek i kommunen, sant=1</t>
   </si>
   <si>
+    <t>Huvudbibliotek saknas</t>
+  </si>
+  <si>
     <t>Folk10</t>
   </si>
   <si>
@@ -179,6 +182,9 @@
     <t>Andel integrerade serivcesställen</t>
   </si>
   <si>
+    <t>Procent</t>
+  </si>
+  <si>
     <t>Folk15</t>
   </si>
   <si>
@@ -272,9 +278,6 @@
     <t>Andel kvinnor totalt</t>
   </si>
   <si>
-    <t>Procent</t>
-  </si>
-  <si>
     <t>Folk25</t>
   </si>
   <si>
@@ -404,6 +407,9 @@
     <t>Total driftskostnad</t>
   </si>
   <si>
+    <t>Long</t>
+  </si>
+  <si>
     <t>Folk39</t>
   </si>
   <si>
@@ -1010,7 +1016,7 @@
     <t>Utlån</t>
   </si>
   <si>
-    <t>Andel utlåning ab bestånd tillgängliga</t>
+    <t>Andel utlåning av bestånd tillgängliga</t>
   </si>
   <si>
     <t>Folk105</t>
@@ -1565,8 +1571,7 @@
     <t>Folk167</t>
   </si>
   <si>
-    <t>Bild-, tecknings-, målnings-, pyssel-, hantverks-,
-experimentverkstad/-kurs, alla åldrar.</t>
+    <t>Bild-, tecknings-, målnings-, pyssel-, hantverks-, experimentverkstad/-kurs, alla åldrar.</t>
   </si>
   <si>
     <t>Totalt bild</t>
@@ -1575,8 +1580,7 @@
     <t>Folk168</t>
   </si>
   <si>
-    <t>Bild-, tecknings-, målnings-, pyssel-, hantverks-,
-experimentverkstad/-kurs, främst barn och unga.</t>
+    <t>Bild-, tecknings-, målnings-, pyssel-, hantverks-, experimentverkstad/-kurs, främst barn och unga.</t>
   </si>
   <si>
     <t>Barn bild</t>
@@ -1585,8 +1589,7 @@
     <t>Folk169</t>
   </si>
   <si>
-    <t>Bok- eller läsecirkel - sluten sammankomst med
-litterär anknytning, alla åldrar.</t>
+    <t>Bok- eller läsecirkel - sluten sammankomst med litterär anknytning, alla åldrar.</t>
   </si>
   <si>
     <t>Totalt sluten bokcirkel</t>
@@ -1595,8 +1598,7 @@
     <t>Folk170</t>
   </si>
   <si>
-    <t>Bok- eller läsecirkel - sluten sammankomst med
-litterär anknytning, främst barn och unga</t>
+    <t>Bok- eller läsecirkel - sluten sammankomst med litterär anknytning, främst barn och unga</t>
   </si>
   <si>
     <t>Barn sluten bokcirkel</t>
@@ -1605,8 +1607,7 @@
     <t>Folk171</t>
   </si>
   <si>
-    <t>Bok-, läs- eller korsordskafé - öppen
-sammankomst med litterär anknytning, alla åldrar.</t>
+    <t>Bok-, läs- eller korsordskafé - öppen sammankomst med litterär anknytning, alla åldrar.</t>
   </si>
   <si>
     <t>Totalt öppen bokcirkel</t>
@@ -1615,8 +1616,7 @@
     <t>Folk172</t>
   </si>
   <si>
-    <t>Bok-, läs- eller korsordskafé - öppen
-sammankomst med litterär anknytning, främst barn och unga.</t>
+    <t>Bok-, läs- eller korsordskafé - öppen sammankomst med litterär anknytning, främst barn och unga.</t>
   </si>
   <si>
     <t>Barn öppen bokcirkel</t>
@@ -1625,8 +1625,7 @@
     <t>Folk173</t>
   </si>
   <si>
-    <t>Biblioteksinformation/-visning för
-grupper/elever/studerande, alla åldrar.</t>
+    <t>Biblioteksinformation/-visning för grupper/elever/studerande, alla åldrar.</t>
   </si>
   <si>
     <t>Totalt biblioteksvisning</t>
@@ -1635,8 +1634,7 @@
     <t>Folk174</t>
   </si>
   <si>
-    <t>Biblioteksinformation/-visning för
-grupper/elever/studerande, främst barn och unga.</t>
+    <t>Biblioteksinformation/-visning för grupper/elever/studerande, främst barn och unga.</t>
   </si>
   <si>
     <t>Barn biblioteksvisning</t>
@@ -1898,12 +1896,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1921,20 +1918,13 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1945,6 +1935,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF66CC"/>
         <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1982,21 +1978,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2074,4056 +2066,4063 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="77.234693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="1" width="35.6479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="10.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.4642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.1173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="F9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="F10" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="E11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="E12" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="F12" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="D13" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="E13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="D14" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="E14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="D15" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="E15" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="F15" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="D16" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="D17" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="D18" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="D19" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E19" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="D20" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="1" t="s">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="1" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="B23" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="C23" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D23" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E23" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="B24" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C24" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="E24" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="B25" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="C25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="E25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="B26" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="C26" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="E26" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="B27" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="C27" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="E27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="B28" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="C28" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="E28" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="B29" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="C29" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="E29" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="B30" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="C30" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="E30" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="B31" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="C31" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="E31" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="B32" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="C32" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="E32" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="B33" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="C33" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="E33" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="B34" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="C34" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="E34" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="B35" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="E35" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="B36" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="C36" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="E36" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="B37" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="C37" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="E37" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="B38" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="C38" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="F38" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="C39" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="D39" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="E39" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="F39" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="B40" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C40" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="E40" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="B41" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C41" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="E41" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="B42" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C42" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="E42" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="B43" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C43" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="E43" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="B44" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C44" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="E44" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+      <c r="B45" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C45" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="E45" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+      <c r="B46" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C46" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="E46" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="B47" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C47" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="E47" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+      <c r="B48" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C48" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="E48" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+      <c r="B49" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C49" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="E49" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="B50" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C50" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="E50" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="B51" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="F51" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="B52" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="C52" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="D52" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="E52" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="B53" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C53" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="E53" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+      <c r="B54" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C54" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="E54" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="B55" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+      <c r="C55" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="E55" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="F55" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="B56" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
+      <c r="C56" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="D56" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="E56" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
+      <c r="B57" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C57" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D57" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="E57" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
+      <c r="B58" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C58" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="E58" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
+      <c r="B59" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C59" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="E59" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
+      <c r="B60" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C60" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="E60" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
+      <c r="B61" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C61" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="E61" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
+      <c r="B62" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C62" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="E62" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
+      <c r="B63" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C63" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="E63" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
+      <c r="B64" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C64" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="E64" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
+      <c r="B65" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C65" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="E65" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
+      <c r="B66" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C66" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="E66" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
+      <c r="B67" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C67" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="E67" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
+      <c r="B68" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C68" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="E68" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
+      <c r="B69" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C69" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="E69" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
+      <c r="B70" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C70" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="E70" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
+      <c r="B71" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C71" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="E71" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
+      <c r="B72" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C72" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="E72" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
+      <c r="B73" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C73" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D74" s="1" t="s">
+      <c r="E73" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
+      <c r="B74" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C74" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="E74" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
+      <c r="B75" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C75" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="E75" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
+      <c r="B76" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C76" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="E76" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
+      <c r="B77" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C77" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="E77" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
+      <c r="B78" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C78" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="E78" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
+      <c r="B79" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C79" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D79" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="E79" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
+      <c r="B80" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C80" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="E80" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
+      <c r="B81" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C81" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="E81" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
+      <c r="B82" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C82" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="E82" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
+      <c r="B83" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C83" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="E83" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
+      <c r="B84" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C84" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D84" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="E84" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
+      <c r="B85" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C85" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="E85" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
+      <c r="B86" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C86" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="E86" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
+      <c r="B87" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C87" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D87" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D88" s="1" t="s">
+      <c r="E87" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
+      <c r="B88" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C88" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D88" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="E88" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
+      <c r="B89" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C89" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D89" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="E89" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
+      <c r="B90" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C90" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D90" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="E90" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
+      <c r="B91" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C91" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D91" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D92" s="1" t="s">
+      <c r="E91" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
+      <c r="B92" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C92" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D93" s="1" t="s">
+      <c r="E92" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
+      <c r="B93" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C93" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="E93" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
+      <c r="B94" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C94" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D94" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="E94" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
+      <c r="B95" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C95" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="E95" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
+      <c r="B96" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C96" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D96" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="E96" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
+      <c r="B97" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C97" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D97" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D98" s="1" t="s">
+      <c r="E97" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
+      <c r="B98" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C98" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D98" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D99" s="1" t="s">
+      <c r="E98" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
+      <c r="B99" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C99" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D99" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="E99" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
+      <c r="B100" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C100" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D100" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="E100" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="B101" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
+      <c r="C101" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="D101" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D102" s="1" t="s">
+      <c r="E101" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
+      <c r="B102" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C102" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="D102" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="E102" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
+      <c r="B103" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C103" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="D103" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="E103" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
+      <c r="B104" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C104" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="D104" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="E104" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="B105" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
+      <c r="C105" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="D105" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D106" s="1" t="s">
+      <c r="E105" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
+      <c r="B106" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C106" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D106" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D107" s="1" t="s">
+      <c r="E106" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
+      <c r="B107" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C107" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D107" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D108" s="1" t="s">
+      <c r="E107" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="B108" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="E108" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D109" s="1" t="s">
+      <c r="F108" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
+      <c r="B109" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C109" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D109" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="E109" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
+      <c r="B110" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C110" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D110" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="E110" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
+      <c r="B111" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C111" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D111" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D112" s="1" t="s">
+      <c r="E111" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
+      <c r="B112" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C112" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D112" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="E112" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
+      <c r="B113" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C113" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D113" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D114" s="1" t="s">
+      <c r="E113" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
+      <c r="B114" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C114" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D114" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D115" s="1" t="s">
+      <c r="E114" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
+      <c r="B115" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C115" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D115" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D116" s="1" t="s">
+      <c r="E115" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
+      <c r="B116" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C116" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D116" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="E116" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
+      <c r="B117" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C117" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D117" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D118" s="1" t="s">
+      <c r="E117" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
+      <c r="B118" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C118" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D118" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="E118" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
+      <c r="B119" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C119" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D119" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D120" s="1" t="s">
+      <c r="E119" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
+      <c r="B120" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C120" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D120" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D121" s="1" t="s">
+      <c r="E120" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
+      <c r="B121" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C121" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D121" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D122" s="1" t="s">
+      <c r="E121" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
+      <c r="B122" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C122" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D122" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D123" s="1" t="s">
+      <c r="E122" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
+      <c r="B123" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C123" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D123" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D124" s="1" t="s">
+      <c r="E123" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="s">
+      <c r="B124" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C124" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D124" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
+      <c r="E124" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B125" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D126" s="1" t="s">
+      <c r="C125" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D125" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
+      <c r="E125" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B126" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D127" s="1" t="s">
+      <c r="C126" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="s">
+      <c r="B127" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C127" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D127" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D128" s="1" t="s">
+      <c r="E127" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="s">
+      <c r="B128" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C128" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D128" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
+      <c r="E128" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B129" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D130" s="1" t="s">
+      <c r="C129" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D129" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="s">
+      <c r="E129" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B130" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D131" s="1" t="s">
+      <c r="C130" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D130" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="s">
+      <c r="E130" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B131" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D132" s="1" t="s">
+      <c r="C131" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="s">
+      <c r="B132" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C132" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D132" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D133" s="1" t="s">
+      <c r="E132" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="B133" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="E133" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D134" s="1" t="s">
+      <c r="F133" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="s">
+      <c r="B134" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C134" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D134" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D135" s="1" t="s">
+      <c r="E134" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
+      <c r="B135" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C135" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D135" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D136" s="1" t="s">
+      <c r="E135" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="B136" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E136" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C137" s="1" t="s">
+      <c r="F136" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="B137" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
+      <c r="C137" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="D137" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D138" s="1" t="s">
+      <c r="E137" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="s">
+      <c r="B138" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C138" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D138" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D139" s="1" t="s">
+      <c r="E138" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="s">
+      <c r="B139" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C139" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D139" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D140" s="1" t="s">
+      <c r="E139" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F139" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="s">
+      <c r="B140" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C140" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D140" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D141" s="1" t="s">
+      <c r="E140" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F140" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="s">
+      <c r="B141" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C141" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D141" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D142" s="1" t="s">
+      <c r="E141" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F141" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="s">
+      <c r="B142" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C142" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D142" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D143" s="1" t="s">
+      <c r="E142" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F142" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="s">
+      <c r="B143" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C143" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D143" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D144" s="1" t="s">
+      <c r="E143" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F143" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
+      <c r="B144" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C144" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D144" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D145" s="1" t="s">
+      <c r="E144" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F144" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="s">
+      <c r="B145" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C145" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D145" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D146" s="1" t="s">
+      <c r="E145" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="B146" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="E146" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C147" s="1" t="s">
+      <c r="F146" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="s">
+      <c r="B147" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C147" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D148" s="1" t="s">
+      <c r="D147" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F147" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="s">
+      <c r="B148" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C148" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D148" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D149" s="1" t="s">
+      <c r="E148" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F148" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="s">
+      <c r="B149" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C149" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D149" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D150" s="1" t="s">
+      <c r="E149" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F149" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F150" s="1" t="s">
+      <c r="B150" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F150" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D151" s="1" t="s">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F151" s="1" t="s">
+      <c r="B151" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F151" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D152" s="1" t="s">
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="E152" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F152" s="1" t="s">
+      <c r="B152" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F152" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D153" s="1" t="s">
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F153" s="1" t="s">
+      <c r="B153" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F153" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D154" s="1" t="s">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E154" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="s">
+      <c r="B154" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="C154" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D154" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D155" s="1" t="s">
+      <c r="E154" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F154" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="s">
+      <c r="B155" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C155" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D155" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="E155" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F155" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="s">
+      <c r="B156" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C156" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D156" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="E156" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F156" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="s">
+      <c r="B157" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C157" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D157" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D158" s="1" t="s">
+      <c r="E157" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F157" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="s">
+      <c r="B158" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C158" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D158" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D159" s="1" t="s">
+      <c r="E158" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F158" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="s">
+      <c r="B159" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C159" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D159" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="E159" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F159" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="B160" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="E160" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F160" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C161" s="1" t="s">
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="B161" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="s">
+      <c r="C161" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="D161" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D162" s="1" t="s">
+      <c r="E161" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F161" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="s">
+      <c r="B162" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="C162" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D162" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D163" s="1" t="s">
+      <c r="E162" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F162" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="s">
+      <c r="B163" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C163" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D163" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="E163" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F163" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="E164" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="s">
+      <c r="B164" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C164" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D164" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D165" s="1" t="s">
+      <c r="E164" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F164" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="s">
+      <c r="B165" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C165" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D165" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D166" s="1" t="s">
+      <c r="E165" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F165" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="s">
+      <c r="B166" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C166" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D166" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D167" s="1" t="s">
+      <c r="E166" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F166" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="s">
+      <c r="B167" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="C167" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D167" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D168" s="1" t="s">
+      <c r="E167" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F167" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="s">
+      <c r="B168" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="C168" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D168" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D169" s="1" t="s">
+      <c r="E168" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F168" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="s">
+      <c r="B169" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="C169" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D169" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D170" s="1" t="s">
+      <c r="E169" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F169" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E170" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="s">
+      <c r="B170" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="C170" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D170" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D171" s="1" t="s">
+      <c r="E170" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F170" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="s">
+      <c r="B171" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="C171" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D171" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D172" s="1" t="s">
+      <c r="E171" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F171" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="s">
+      <c r="B172" s="0" t="s">
         <v>530</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="C172" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D172" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D173" s="1" t="s">
+      <c r="E172" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F172" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="s">
+      <c r="B173" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="C173" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D173" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D174" s="1" t="s">
+      <c r="E173" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F173" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="s">
+      <c r="B174" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="C174" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D174" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D175" s="1" t="s">
+      <c r="E174" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F174" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E175" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="s">
+      <c r="B175" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C175" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D175" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D176" s="1" t="s">
+      <c r="E175" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F175" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="E176" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="s">
+      <c r="B176" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C176" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D176" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D177" s="1" t="s">
+      <c r="E176" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F176" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="E177" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="s">
+      <c r="B177" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C177" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D177" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D178" s="1" t="s">
+      <c r="E177" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F177" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="E178" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="s">
+      <c r="B178" s="0" t="s">
         <v>548</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C178" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D178" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D179" s="1" t="s">
+      <c r="E178" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F178" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="E179" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="s">
+      <c r="B179" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C179" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D179" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D180" s="1" t="s">
+      <c r="E179" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F179" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="E180" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="s">
+      <c r="B180" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C180" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D180" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D181" s="1" t="s">
+      <c r="E180" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F180" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="s">
+      <c r="B181" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C181" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D181" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D182" s="1" t="s">
+      <c r="E181" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F181" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E182" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="s">
+      <c r="B182" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C182" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D182" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D183" s="1" t="s">
+      <c r="E182" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F182" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="E183" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="s">
+      <c r="B183" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C183" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D183" s="0" t="s">
         <v>564</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D184" s="1" t="s">
+      <c r="E183" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F183" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="s">
+      <c r="B184" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C184" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D184" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D185" s="1" t="s">
+      <c r="E184" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F184" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="s">
+      <c r="B185" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C185" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D185" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D186" s="1" t="s">
+      <c r="E185" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F185" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="s">
+      <c r="B186" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="C186" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D186" s="0" t="s">
         <v>573</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D187" s="1" t="s">
+      <c r="E186" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F186" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="s">
+      <c r="B187" s="0" t="s">
         <v>575</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="C187" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D187" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D188" s="1" t="s">
+      <c r="E187" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F187" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="s">
+      <c r="B188" s="0" t="s">
         <v>578</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C188" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D188" s="0" t="s">
         <v>579</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D189" s="1" t="s">
+      <c r="E188" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F188" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="s">
+      <c r="B189" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="C189" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D189" s="0" t="s">
         <v>582</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D190" s="1" t="s">
+      <c r="E189" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F189" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="s">
+      <c r="B190" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="C190" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D190" s="0" t="s">
         <v>585</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D191" s="1" t="s">
+      <c r="E190" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F190" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="s">
+      <c r="B191" s="0" t="s">
         <v>587</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C191" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D191" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D192" s="1" t="s">
+      <c r="E191" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F191" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="s">
+      <c r="B192" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="C192" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D192" s="0" t="s">
         <v>591</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D193" s="1" t="s">
+      <c r="E192" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F192" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="s">
+      <c r="B193" s="0" t="s">
         <v>593</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C193" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D193" s="0" t="s">
         <v>594</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D194" s="1" t="s">
+      <c r="E193" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F193" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="s">
+      <c r="B194" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C194" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D194" s="0" t="s">
         <v>597</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D195" s="1" t="s">
+      <c r="E194" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F194" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="s">
+      <c r="B195" s="0" t="s">
         <v>599</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="C195" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D195" s="0" t="s">
         <v>600</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D196" s="1" t="s">
+      <c r="E195" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F195" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="E196" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="s">
+      <c r="B196" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="C196" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D196" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D197" s="1" t="s">
+      <c r="E196" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F196" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="E197" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="s">
+      <c r="B197" s="0" t="s">
         <v>605</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C197" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D197" s="0" t="s">
         <v>606</v>
       </c>
-      <c r="C198" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D198" s="1" t="s">
+      <c r="E197" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F197" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="E198" s="1" t="s">
+      <c r="B198" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="E198" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F198" s="1" t="s">
+      <c r="F198" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C199" s="1" t="s">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="B199" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="E199" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F199" s="1" t="s">
+      <c r="C199" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="D199" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F199" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="s">
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="C200" s="0" t="s">
         <v>612</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F200" s="1" t="s">
+      <c r="D200" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="E200" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F200" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C201" s="1" t="s">
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="B201" s="0" t="s">
         <v>618</v>
       </c>
-      <c r="E201" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F201" s="1" t="s">
+      <c r="C201" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F201" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="s">
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="C202" s="0" t="s">
         <v>619</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F202" s="1" t="s">
+      <c r="D202" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="E202" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F202" s="0" t="s">
         <v>20</v>
       </c>
     </row>

--- a/data/folk_termer.xlsx
+++ b/data/folk_termer.xlsx
@@ -1896,7 +1896,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1922,26 +1922,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF66CC"/>
-        <bgColor rgb="FFFF99CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1978,16 +1973,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2000,73 +1999,13 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF66CC"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F202"/>
@@ -2075,39 +2014,39 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.4642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.1173469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.1428571428572"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5714285714286"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -2126,8 +2065,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -2146,8 +2085,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -2166,8 +2105,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -2186,8 +2125,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -2206,8 +2145,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -2227,7 +2166,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -2246,8 +2185,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
@@ -2266,8 +2205,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -2286,8 +2225,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -2306,8 +2245,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -2326,8 +2265,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -2346,8 +2285,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -2366,8 +2305,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -2386,8 +2325,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="0" t="s">
@@ -2406,8 +2345,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -2426,8 +2365,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -2446,8 +2385,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="0" t="s">
@@ -2466,8 +2405,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="0" t="s">
@@ -2486,8 +2425,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B21" s="0" t="s">
@@ -2506,8 +2445,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -2526,8 +2465,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -2546,8 +2485,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B24" s="0" t="s">
@@ -2566,8 +2505,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B25" s="0" t="s">
@@ -2586,8 +2525,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B26" s="0" t="s">
@@ -2606,8 +2545,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B27" s="0" t="s">
@@ -2626,8 +2565,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B28" s="0" t="s">
@@ -2646,8 +2585,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B29" s="0" t="s">
@@ -2666,8 +2605,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -2686,8 +2625,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B31" s="0" t="s">
@@ -2706,8 +2645,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B32" s="0" t="s">
@@ -2726,8 +2665,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B33" s="0" t="s">
@@ -2746,8 +2685,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B34" s="0" t="s">
@@ -2766,8 +2705,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B35" s="0" t="s">
@@ -2786,8 +2725,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B36" s="0" t="s">
@@ -2806,8 +2745,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B37" s="0" t="s">
@@ -2826,8 +2765,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B38" s="0" t="s">
@@ -2846,8 +2785,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B39" s="0" t="s">
@@ -2866,8 +2805,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B40" s="0" t="s">
@@ -2886,8 +2825,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B41" s="0" t="s">
@@ -2906,8 +2845,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B42" s="0" t="s">
@@ -2926,8 +2865,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B43" s="0" t="s">
@@ -2946,8 +2885,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B44" s="0" t="s">
@@ -2966,8 +2905,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B45" s="0" t="s">
@@ -2986,8 +2925,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B46" s="0" t="s">
@@ -3006,8 +2945,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B47" s="0" t="s">
@@ -3026,8 +2965,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B48" s="0" t="s">
@@ -3046,8 +2985,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B49" s="0" t="s">
@@ -3066,8 +3005,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B50" s="0" t="s">
@@ -3086,8 +3025,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B51" s="0" t="s">
@@ -3106,8 +3045,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B52" s="0" t="s">
@@ -3126,8 +3065,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B53" s="0" t="s">
@@ -3146,8 +3085,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B54" s="0" t="s">
@@ -3166,8 +3105,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B55" s="0" t="s">
@@ -3186,8 +3125,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B56" s="0" t="s">
@@ -3206,8 +3145,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B57" s="0" t="s">
@@ -3226,8 +3165,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B58" s="0" t="s">
@@ -3246,8 +3185,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B59" s="0" t="s">
@@ -3266,8 +3205,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B60" s="0" t="s">
@@ -3286,8 +3225,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B61" s="0" t="s">
@@ -3306,8 +3245,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B62" s="0" t="s">
@@ -3326,8 +3265,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B63" s="0" t="s">
@@ -3346,8 +3285,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B64" s="0" t="s">
@@ -3366,8 +3305,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B65" s="0" t="s">
@@ -3386,8 +3325,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B66" s="0" t="s">
@@ -3406,8 +3345,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B67" s="0" t="s">
@@ -3426,8 +3365,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B68" s="0" t="s">
@@ -3446,8 +3385,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B69" s="0" t="s">
@@ -3466,8 +3405,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B70" s="0" t="s">
@@ -3486,8 +3425,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B71" s="0" t="s">
@@ -3506,8 +3445,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B72" s="0" t="s">
@@ -3526,8 +3465,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B73" s="0" t="s">
@@ -3546,8 +3485,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B74" s="0" t="s">
@@ -3566,8 +3505,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B75" s="0" t="s">
@@ -3586,8 +3525,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B76" s="0" t="s">
@@ -3606,8 +3545,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B77" s="0" t="s">
@@ -3626,8 +3565,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B78" s="0" t="s">
@@ -3646,8 +3585,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B79" s="0" t="s">
@@ -3666,8 +3605,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B80" s="0" t="s">
@@ -3686,8 +3625,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B81" s="0" t="s">
@@ -3706,8 +3645,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B82" s="0" t="s">
@@ -3726,8 +3665,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B83" s="0" t="s">
@@ -3746,8 +3685,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
         <v>266</v>
       </c>
       <c r="B84" s="0" t="s">
@@ -3766,8 +3705,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
         <v>269</v>
       </c>
       <c r="B85" s="0" t="s">
@@ -3786,8 +3725,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B86" s="0" t="s">
@@ -3806,8 +3745,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
         <v>275</v>
       </c>
       <c r="B87" s="0" t="s">
@@ -3826,8 +3765,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B88" s="0" t="s">
@@ -3846,8 +3785,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B89" s="0" t="s">
@@ -3866,8 +3805,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B90" s="0" t="s">
@@ -3886,8 +3825,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
         <v>287</v>
       </c>
       <c r="B91" s="0" t="s">
@@ -3906,8 +3845,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
         <v>290</v>
       </c>
       <c r="B92" s="0" t="s">
@@ -3926,8 +3865,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
         <v>293</v>
       </c>
       <c r="B93" s="0" t="s">
@@ -3946,8 +3885,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
         <v>296</v>
       </c>
       <c r="B94" s="0" t="s">
@@ -3966,8 +3905,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="s">
         <v>299</v>
       </c>
       <c r="B95" s="0" t="s">
@@ -3986,8 +3925,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
         <v>302</v>
       </c>
       <c r="B96" s="0" t="s">
@@ -4006,8 +3945,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
         <v>305</v>
       </c>
       <c r="B97" s="0" t="s">
@@ -4026,8 +3965,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
         <v>308</v>
       </c>
       <c r="B98" s="0" t="s">
@@ -4046,8 +3985,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
         <v>311</v>
       </c>
       <c r="B99" s="0" t="s">
@@ -4066,8 +4005,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B100" s="0" t="s">
@@ -4086,8 +4025,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B101" s="0" t="s">
@@ -4106,8 +4045,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
         <v>321</v>
       </c>
       <c r="B102" s="0" t="s">
@@ -4126,8 +4065,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
         <v>324</v>
       </c>
       <c r="B103" s="0" t="s">
@@ -4146,8 +4085,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="s">
         <v>327</v>
       </c>
       <c r="B104" s="0" t="s">
@@ -4166,8 +4105,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B105" s="0" t="s">
@@ -4186,8 +4125,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B106" s="0" t="s">
@@ -4206,8 +4145,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="s">
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B107" s="0" t="s">
@@ -4226,8 +4165,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="s">
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B108" s="0" t="s">
@@ -4246,8 +4185,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B109" s="0" t="s">
@@ -4266,8 +4205,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="s">
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B110" s="0" t="s">
@@ -4286,8 +4225,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B111" s="0" t="s">
@@ -4306,8 +4245,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="s">
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B112" s="0" t="s">
@@ -4326,8 +4265,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="s">
         <v>355</v>
       </c>
       <c r="B113" s="0" t="s">
@@ -4346,8 +4285,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="s">
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3" t="s">
         <v>358</v>
       </c>
       <c r="B114" s="0" t="s">
@@ -4366,8 +4305,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3" t="s">
         <v>361</v>
       </c>
       <c r="B115" s="0" t="s">
@@ -4386,8 +4325,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="s">
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3" t="s">
         <v>364</v>
       </c>
       <c r="B116" s="0" t="s">
@@ -4406,8 +4345,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="s">
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B117" s="0" t="s">
@@ -4426,8 +4365,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3" t="s">
         <v>370</v>
       </c>
       <c r="B118" s="0" t="s">
@@ -4446,8 +4385,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="s">
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="3" t="s">
         <v>373</v>
       </c>
       <c r="B119" s="0" t="s">
@@ -4466,8 +4405,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="s">
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="3" t="s">
         <v>376</v>
       </c>
       <c r="B120" s="0" t="s">
@@ -4486,8 +4425,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="s">
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="3" t="s">
         <v>379</v>
       </c>
       <c r="B121" s="0" t="s">
@@ -4506,8 +4445,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="s">
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="3" t="s">
         <v>382</v>
       </c>
       <c r="B122" s="0" t="s">
@@ -4526,8 +4465,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="s">
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="3" t="s">
         <v>385</v>
       </c>
       <c r="B123" s="0" t="s">
@@ -4546,8 +4485,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="s">
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="3" t="s">
         <v>388</v>
       </c>
       <c r="B124" s="0" t="s">
@@ -4566,8 +4505,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="s">
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="3" t="s">
         <v>391</v>
       </c>
       <c r="B125" s="0" t="s">
@@ -4586,8 +4525,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="s">
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="3" t="s">
         <v>393</v>
       </c>
       <c r="B126" s="0" t="s">
@@ -4606,8 +4545,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="s">
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="3" t="s">
         <v>395</v>
       </c>
       <c r="B127" s="0" t="s">
@@ -4626,8 +4565,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="s">
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="3" t="s">
         <v>398</v>
       </c>
       <c r="B128" s="0" t="s">
@@ -4646,8 +4585,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="s">
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="3" t="s">
         <v>401</v>
       </c>
       <c r="B129" s="0" t="s">
@@ -4666,8 +4605,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="s">
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="3" t="s">
         <v>403</v>
       </c>
       <c r="B130" s="0" t="s">
@@ -4686,8 +4625,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="s">
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="s">
         <v>405</v>
       </c>
       <c r="B131" s="0" t="s">
@@ -4706,8 +4645,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="s">
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="3" t="s">
         <v>407</v>
       </c>
       <c r="B132" s="0" t="s">
@@ -4726,8 +4665,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="s">
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3" t="s">
         <v>410</v>
       </c>
       <c r="B133" s="0" t="s">
@@ -4746,8 +4685,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="s">
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3" t="s">
         <v>413</v>
       </c>
       <c r="B134" s="0" t="s">
@@ -4766,8 +4705,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="s">
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3" t="s">
         <v>416</v>
       </c>
       <c r="B135" s="0" t="s">
@@ -4786,8 +4725,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="s">
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3" t="s">
         <v>419</v>
       </c>
       <c r="B136" s="0" t="s">
@@ -4806,8 +4745,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="s">
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3" t="s">
         <v>422</v>
       </c>
       <c r="B137" s="0" t="s">
@@ -4826,8 +4765,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="s">
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3" t="s">
         <v>426</v>
       </c>
       <c r="B138" s="0" t="s">
@@ -4846,8 +4785,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="s">
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="3" t="s">
         <v>429</v>
       </c>
       <c r="B139" s="0" t="s">
@@ -4866,8 +4805,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="s">
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="3" t="s">
         <v>432</v>
       </c>
       <c r="B140" s="0" t="s">
@@ -4886,8 +4825,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="s">
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="3" t="s">
         <v>435</v>
       </c>
       <c r="B141" s="0" t="s">
@@ -4906,8 +4845,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="s">
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="3" t="s">
         <v>438</v>
       </c>
       <c r="B142" s="0" t="s">
@@ -4926,8 +4865,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="s">
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="3" t="s">
         <v>441</v>
       </c>
       <c r="B143" s="0" t="s">
@@ -4946,8 +4885,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="s">
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="3" t="s">
         <v>444</v>
       </c>
       <c r="B144" s="0" t="s">
@@ -4966,8 +4905,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="s">
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="3" t="s">
         <v>447</v>
       </c>
       <c r="B145" s="0" t="s">
@@ -4986,8 +4925,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="s">
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="3" t="s">
         <v>450</v>
       </c>
       <c r="B146" s="0" t="s">
@@ -5006,8 +4945,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="s">
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="3" t="s">
         <v>453</v>
       </c>
       <c r="B147" s="0" t="s">
@@ -5026,8 +4965,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="s">
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="3" t="s">
         <v>456</v>
       </c>
       <c r="B148" s="0" t="s">
@@ -5046,8 +4985,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="s">
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="3" t="s">
         <v>459</v>
       </c>
       <c r="B149" s="0" t="s">
@@ -5066,8 +5005,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="s">
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="3" t="s">
         <v>462</v>
       </c>
       <c r="B150" s="0" t="s">
@@ -5086,8 +5025,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="s">
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="3" t="s">
         <v>465</v>
       </c>
       <c r="B151" s="0" t="s">
@@ -5106,8 +5045,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="s">
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="3" t="s">
         <v>468</v>
       </c>
       <c r="B152" s="0" t="s">
@@ -5126,8 +5065,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="s">
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="3" t="s">
         <v>471</v>
       </c>
       <c r="B153" s="0" t="s">
@@ -5146,8 +5085,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="s">
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="3" t="s">
         <v>474</v>
       </c>
       <c r="B154" s="0" t="s">
@@ -5166,8 +5105,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2" t="s">
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="3" t="s">
         <v>477</v>
       </c>
       <c r="B155" s="0" t="s">
@@ -5186,8 +5125,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="s">
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="3" t="s">
         <v>480</v>
       </c>
       <c r="B156" s="0" t="s">
@@ -5206,8 +5145,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2" t="s">
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="3" t="s">
         <v>483</v>
       </c>
       <c r="B157" s="0" t="s">
@@ -5226,8 +5165,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="s">
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="3" t="s">
         <v>486</v>
       </c>
       <c r="B158" s="0" t="s">
@@ -5246,8 +5185,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="s">
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="3" t="s">
         <v>489</v>
       </c>
       <c r="B159" s="0" t="s">
@@ -5266,8 +5205,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="s">
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="3" t="s">
         <v>492</v>
       </c>
       <c r="B160" s="0" t="s">
@@ -5286,8 +5225,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="s">
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="3" t="s">
         <v>495</v>
       </c>
       <c r="B161" s="0" t="s">
@@ -5306,8 +5245,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="s">
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="3" t="s">
         <v>499</v>
       </c>
       <c r="B162" s="0" t="s">
@@ -5326,8 +5265,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="s">
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="3" t="s">
         <v>502</v>
       </c>
       <c r="B163" s="0" t="s">
@@ -5346,8 +5285,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="s">
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="3" t="s">
         <v>505</v>
       </c>
       <c r="B164" s="0" t="s">
@@ -5366,8 +5305,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="s">
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="3" t="s">
         <v>508</v>
       </c>
       <c r="B165" s="0" t="s">
@@ -5386,8 +5325,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="s">
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="3" t="s">
         <v>511</v>
       </c>
       <c r="B166" s="0" t="s">
@@ -5406,8 +5345,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="s">
+    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="3" t="s">
         <v>514</v>
       </c>
       <c r="B167" s="0" t="s">
@@ -5426,8 +5365,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="s">
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="3" t="s">
         <v>517</v>
       </c>
       <c r="B168" s="0" t="s">
@@ -5446,8 +5385,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="s">
+    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="3" t="s">
         <v>520</v>
       </c>
       <c r="B169" s="0" t="s">
@@ -5466,8 +5405,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="s">
+    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="3" t="s">
         <v>523</v>
       </c>
       <c r="B170" s="0" t="s">
@@ -5486,8 +5425,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="s">
+    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="3" t="s">
         <v>526</v>
       </c>
       <c r="B171" s="0" t="s">
@@ -5506,8 +5445,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="s">
+    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="3" t="s">
         <v>529</v>
       </c>
       <c r="B172" s="0" t="s">
@@ -5526,8 +5465,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="s">
+    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="3" t="s">
         <v>532</v>
       </c>
       <c r="B173" s="0" t="s">
@@ -5546,8 +5485,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="s">
+    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="3" t="s">
         <v>535</v>
       </c>
       <c r="B174" s="0" t="s">
@@ -5566,8 +5505,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="s">
+    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="3" t="s">
         <v>538</v>
       </c>
       <c r="B175" s="0" t="s">
@@ -5586,8 +5525,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2" t="s">
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="3" t="s">
         <v>541</v>
       </c>
       <c r="B176" s="0" t="s">
@@ -5606,8 +5545,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="s">
+    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="3" t="s">
         <v>544</v>
       </c>
       <c r="B177" s="0" t="s">
@@ -5626,8 +5565,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="2" t="s">
+    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="3" t="s">
         <v>547</v>
       </c>
       <c r="B178" s="0" t="s">
@@ -5646,8 +5585,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="2" t="s">
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="3" t="s">
         <v>550</v>
       </c>
       <c r="B179" s="0" t="s">
@@ -5666,8 +5605,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="2" t="s">
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="3" t="s">
         <v>553</v>
       </c>
       <c r="B180" s="0" t="s">
@@ -5686,8 +5625,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2" t="s">
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="3" t="s">
         <v>556</v>
       </c>
       <c r="B181" s="0" t="s">
@@ -5706,8 +5645,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="2" t="s">
+    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="3" t="s">
         <v>559</v>
       </c>
       <c r="B182" s="0" t="s">
@@ -5726,8 +5665,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="s">
+    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="3" t="s">
         <v>562</v>
       </c>
       <c r="B183" s="0" t="s">
@@ -5746,8 +5685,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2" t="s">
+    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="3" t="s">
         <v>565</v>
       </c>
       <c r="B184" s="0" t="s">
@@ -5766,8 +5705,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2" t="s">
+    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="3" t="s">
         <v>568</v>
       </c>
       <c r="B185" s="0" t="s">
@@ -5786,8 +5725,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="s">
+    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="3" t="s">
         <v>571</v>
       </c>
       <c r="B186" s="0" t="s">
@@ -5806,8 +5745,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="2" t="s">
+    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="3" t="s">
         <v>574</v>
       </c>
       <c r="B187" s="0" t="s">
@@ -5826,8 +5765,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="s">
+    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="3" t="s">
         <v>577</v>
       </c>
       <c r="B188" s="0" t="s">
@@ -5846,8 +5785,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="s">
+    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="3" t="s">
         <v>580</v>
       </c>
       <c r="B189" s="0" t="s">
@@ -5866,8 +5805,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="2" t="s">
+    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="3" t="s">
         <v>583</v>
       </c>
       <c r="B190" s="0" t="s">
@@ -5886,8 +5825,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="s">
+    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="3" t="s">
         <v>586</v>
       </c>
       <c r="B191" s="0" t="s">
@@ -5906,8 +5845,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2" t="s">
+    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="3" t="s">
         <v>589</v>
       </c>
       <c r="B192" s="0" t="s">
@@ -5926,8 +5865,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="s">
+    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="3" t="s">
         <v>592</v>
       </c>
       <c r="B193" s="0" t="s">
@@ -5946,8 +5885,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2" t="s">
+    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="3" t="s">
         <v>595</v>
       </c>
       <c r="B194" s="0" t="s">
@@ -5966,8 +5905,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2" t="s">
+    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="3" t="s">
         <v>598</v>
       </c>
       <c r="B195" s="0" t="s">
@@ -5986,8 +5925,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="2" t="s">
+    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="3" t="s">
         <v>601</v>
       </c>
       <c r="B196" s="0" t="s">
@@ -6006,8 +5945,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2" t="s">
+    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="3" t="s">
         <v>604</v>
       </c>
       <c r="B197" s="0" t="s">
@@ -6026,8 +5965,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2" t="s">
+    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="3" t="s">
         <v>607</v>
       </c>
       <c r="B198" s="0" t="s">
@@ -6046,8 +5985,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2" t="s">
+    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="3" t="s">
         <v>610</v>
       </c>
       <c r="B199" s="0" t="s">
@@ -6066,8 +6005,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2" t="s">
+    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="3" t="s">
         <v>614</v>
       </c>
       <c r="B200" s="0" t="s">
@@ -6086,8 +6025,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="s">
+    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="3" t="s">
         <v>617</v>
       </c>
       <c r="B201" s="0" t="s">
@@ -6106,8 +6045,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="2" t="s">
+    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="3" t="s">
         <v>621</v>
       </c>
       <c r="B202" s="0" t="s">
